--- a/Итерационный(fixed_point).xlsx
+++ b/Итерационный(fixed_point).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Boris\Documents\UNI\Вычмат\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{251388FB-22B0-4E3D-A3C1-86FAB133DCFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE109B9-014A-4DFA-8EFE-9B5F98B255AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="504" windowWidth="17280" windowHeight="9960" xr2:uid="{1576680D-EDA5-4BC1-AB45-3666364E26D1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{1576680D-EDA5-4BC1-AB45-3666364E26D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>g(x)</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>|(x_k) -(x_k+1)|</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -409,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C1869E-8C73-4506-BD7B-3FB288682010}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -420,7 +426,7 @@
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -433,259 +439,272 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-2.2999999999999998</v>
+        <f xml:space="preserve"> -1*F2 + 0.01</f>
+        <v>-3.5300000000000002</v>
       </c>
       <c r="C2">
-        <f>(-2.31*B2^2 + B2 + 2.31)^(1/3)</f>
-        <v>-2.3027000427047808</v>
+        <f>(-1*$F$2*B2^2 + B2 + $F$2)^(1/3)</f>
+        <v>-3.533063171068656</v>
       </c>
       <c r="D2">
         <f>ABS(B2-C2)</f>
-        <v>2.7000427047809694E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.0631710686557234E-3</v>
+      </c>
+      <c r="F2">
+        <v>3.54</v>
+      </c>
+      <c r="G2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <f>C2</f>
-        <v>-2.3027000427047808</v>
+        <v>-3.533063171068656</v>
       </c>
       <c r="C3">
-        <f>(-2.31*B3^2 + B3 + 2.31)^(1/3)</f>
-        <v>-2.3046727646663832</v>
+        <f t="shared" ref="C3:C27" si="0">(-1*$F$2*B3^2 + B3 + $F$2)^(1/3)</f>
+        <v>-3.5351889271901165</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D17" si="0">ABS(B3-C3)</f>
-        <v>1.9727219616023639E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" ref="D3:D7" si="1">ABS(B3-C3)</f>
+        <v>2.125756121460487E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B27" si="1">C3</f>
-        <v>-2.3046727646663832</v>
+        <f t="shared" ref="B4:B27" si="2">C3</f>
+        <v>-3.5351889271901165</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C27" si="2">(-2.31*B4^2 + B4 + 2.31)^(1/3)</f>
-        <v>-2.3061132894044372</v>
+        <f t="shared" si="0"/>
+        <v>-3.5366636825102828</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>1.4405247380540054E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1.4747553201663877E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
+        <f t="shared" si="2"/>
+        <v>-3.5366636825102828</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>-3.5376865808278901</v>
+      </c>
+      <c r="D5">
         <f t="shared" si="1"/>
-        <v>-2.3061132894044372</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="2"/>
-        <v>-2.3071647675476901</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>1.0514781432529041E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.0228983176072681E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
+        <f t="shared" si="2"/>
+        <v>-3.5376865808278901</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>-3.538395962173523</v>
+      </c>
+      <c r="D6">
         <f t="shared" si="1"/>
-        <v>-2.3071647675476901</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="2"/>
-        <v>-2.3079320441213871</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>7.6727657369701774E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7.093813456329201E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
+        <f t="shared" si="2"/>
+        <v>-3.538395962173523</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>-3.5388878678880293</v>
+      </c>
+      <c r="D7">
         <f t="shared" si="1"/>
-        <v>-2.3079320441213871</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="2"/>
-        <v>-2.3084918151381828</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>5.5977101679571817E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.9190571450630216E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <f t="shared" si="1"/>
-        <v>-2.3084918151381828</v>
+        <f t="shared" si="2"/>
+        <v>-3.5388878678880293</v>
       </c>
       <c r="C8">
-        <f t="shared" si="2"/>
-        <v>-2.3089001353751524</v>
+        <f t="shared" si="0"/>
+        <v>-3.5392289450493233</v>
       </c>
       <c r="D8">
         <f t="shared" ref="D8:D27" si="3">ABS(B8-C8)</f>
-        <v>4.0832023696957265E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.4107716129394561E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <f t="shared" si="1"/>
-        <v>-2.3089001353751524</v>
+        <f t="shared" si="2"/>
+        <v>-3.5392289450493233</v>
       </c>
       <c r="C9">
-        <f t="shared" si="2"/>
-        <v>-2.3091979471313291</v>
+        <f t="shared" si="0"/>
+        <v>-3.5394654290100478</v>
       </c>
       <c r="D9">
         <f t="shared" si="3"/>
-        <v>2.9781175617671352E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.364839607245095E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <f t="shared" si="1"/>
-        <v>-2.3091979471313291</v>
+        <f t="shared" si="2"/>
+        <v>-3.5394654290100478</v>
       </c>
       <c r="C10">
-        <f t="shared" si="2"/>
-        <v>-2.3094151405348211</v>
+        <f t="shared" si="0"/>
+        <v>-3.5396293881693075</v>
       </c>
       <c r="D10">
         <f t="shared" si="3"/>
-        <v>2.1719340349202199E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.6395915925970783E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <f t="shared" si="1"/>
-        <v>-2.3094151405348211</v>
+        <f t="shared" si="2"/>
+        <v>-3.5396293881693075</v>
       </c>
       <c r="C11">
-        <f t="shared" si="2"/>
-        <v>-2.3095735295553048</v>
+        <f t="shared" si="0"/>
+        <v>-3.5397430616701659</v>
       </c>
       <c r="D11">
         <f t="shared" si="3"/>
-        <v>1.5838902048370684E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.1367350085844663E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <f t="shared" si="1"/>
-        <v>-2.3095735295553048</v>
+        <f t="shared" si="2"/>
+        <v>-3.5397430616701659</v>
       </c>
       <c r="C12">
-        <f t="shared" si="2"/>
-        <v>-2.3096890301715347</v>
+        <f t="shared" si="0"/>
+        <v>-3.539821870621878</v>
       </c>
       <c r="D12">
         <f t="shared" si="3"/>
-        <v>1.1550061622989105E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7.8808951712083797E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <f t="shared" si="1"/>
-        <v>-2.3096890301715347</v>
+        <f t="shared" si="2"/>
+        <v>-3.539821870621878</v>
       </c>
       <c r="C13">
-        <f t="shared" si="2"/>
-        <v>-2.3097732529413744</v>
+        <f t="shared" si="0"/>
+        <v>-3.5398765076223189</v>
       </c>
       <c r="D13">
         <f t="shared" si="3"/>
-        <v>8.4222769839659151E-5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.4637000440838079E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <f t="shared" si="1"/>
-        <v>-2.3097732529413744</v>
+        <f t="shared" si="2"/>
+        <v>-3.5398765076223189</v>
       </c>
       <c r="C14">
-        <f t="shared" si="2"/>
-        <v>-2.3098346665368013</v>
+        <f t="shared" si="0"/>
+        <v>-3.5399143862876636</v>
       </c>
       <c r="D14">
         <f t="shared" si="3"/>
-        <v>6.1413595426884626E-5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.7878665344770468E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <f t="shared" si="1"/>
-        <v>-2.3098346665368013</v>
+        <f t="shared" si="2"/>
+        <v>-3.5399143862876636</v>
       </c>
       <c r="C15">
-        <f t="shared" si="2"/>
-        <v>-2.309879447360653</v>
+        <f t="shared" si="0"/>
+        <v>-3.5399406466114351</v>
       </c>
       <c r="D15">
         <f t="shared" si="3"/>
-        <v>4.47808238517311E-5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.6260323771509775E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <f t="shared" si="1"/>
-        <v>-2.309879447360653</v>
+        <f t="shared" si="2"/>
+        <v>-3.5399406466114351</v>
       </c>
       <c r="C16">
-        <f t="shared" si="2"/>
-        <v>-2.3099120996926836</v>
+        <f t="shared" si="0"/>
+        <v>-3.5399588521618104</v>
       </c>
       <c r="D16">
         <f t="shared" si="3"/>
-        <v>3.2652332030647102E-5</v>
+        <v>1.8205550375238744E-5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -693,16 +712,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <f t="shared" si="1"/>
-        <v>-2.3099120996926836</v>
+        <f t="shared" si="2"/>
+        <v>-3.5399588521618104</v>
       </c>
       <c r="C17">
-        <f t="shared" si="2"/>
-        <v>-2.3099359082110262</v>
+        <f t="shared" si="0"/>
+        <v>-3.5399714735286616</v>
       </c>
       <c r="D17">
         <f t="shared" si="3"/>
-        <v>2.3808518342605112E-5</v>
+        <v>1.2621366851206517E-5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -710,16 +729,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <f t="shared" si="1"/>
-        <v>-2.3099359082110262</v>
+        <f t="shared" si="2"/>
+        <v>-3.5399714735286616</v>
       </c>
       <c r="C18">
-        <f t="shared" si="2"/>
-        <v>-2.309953268128131</v>
+        <f t="shared" si="0"/>
+        <v>-3.5399802235308964</v>
       </c>
       <c r="D18">
         <f t="shared" si="3"/>
-        <v>1.7359917104720068E-5</v>
+        <v>8.7500022347697382E-6</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -727,16 +746,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <f t="shared" si="1"/>
-        <v>-2.309953268128131</v>
+        <f t="shared" si="2"/>
+        <v>-3.5399802235308964</v>
       </c>
       <c r="C19">
-        <f t="shared" si="2"/>
-        <v>-2.3099659260036329</v>
+        <f t="shared" si="0"/>
+        <v>-3.5399862896283185</v>
       </c>
       <c r="D19">
         <f t="shared" si="3"/>
-        <v>1.2657875501975724E-5</v>
+        <v>6.0660974221526942E-6</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -744,16 +763,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <f t="shared" si="1"/>
-        <v>-2.3099659260036329</v>
+        <f t="shared" si="2"/>
+        <v>-3.5399862896283185</v>
       </c>
       <c r="C20">
-        <f t="shared" si="2"/>
-        <v>-2.3099751553821477</v>
+        <f t="shared" si="0"/>
+        <v>-3.5399904950564105</v>
       </c>
       <c r="D20">
         <f t="shared" si="3"/>
-        <v>9.2293785147745666E-6</v>
+        <v>4.2054280919856524E-6</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -761,16 +780,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <f t="shared" si="1"/>
-        <v>-2.3099751553821477</v>
+        <f t="shared" si="2"/>
+        <v>-3.5399904950564105</v>
       </c>
       <c r="C21">
-        <f t="shared" si="2"/>
-        <v>-2.3099818848849183</v>
+        <f t="shared" si="0"/>
+        <v>-3.5399934105411632</v>
       </c>
       <c r="D21">
         <f t="shared" si="3"/>
-        <v>6.7295027705860377E-6</v>
+        <v>2.9154847527301797E-6</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -778,16 +797,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <f t="shared" si="1"/>
-        <v>-2.3099818848849183</v>
+        <f t="shared" si="2"/>
+        <v>-3.5399934105411632</v>
       </c>
       <c r="C22">
-        <f t="shared" si="2"/>
-        <v>-2.3099867916207697</v>
+        <f t="shared" si="0"/>
+        <v>-3.5399954317498299</v>
       </c>
       <c r="D22">
         <f t="shared" si="3"/>
-        <v>4.9067358514065518E-6</v>
+        <v>2.0212086666582252E-6</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -795,16 +814,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <f t="shared" si="1"/>
-        <v>-2.3099867916207697</v>
+        <f t="shared" si="2"/>
+        <v>-3.5399954317498299</v>
       </c>
       <c r="C23">
-        <f t="shared" si="2"/>
-        <v>-2.3099903693031862</v>
+        <f t="shared" si="0"/>
+        <v>-3.5399968329861982</v>
       </c>
       <c r="D23">
         <f t="shared" si="3"/>
-        <v>3.5776824165445476E-6</v>
+        <v>1.4012363682702755E-6</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -812,16 +831,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <f t="shared" si="1"/>
-        <v>-2.3099903693031862</v>
+        <f t="shared" si="2"/>
+        <v>-3.5399968329861982</v>
       </c>
       <c r="C24">
-        <f t="shared" si="2"/>
-        <v>-2.3099929779210275</v>
+        <f t="shared" si="0"/>
+        <v>-3.539997804416307</v>
       </c>
       <c r="D24">
         <f t="shared" si="3"/>
-        <v>2.6086178412931815E-6</v>
+        <v>9.7143010879818803E-7</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -829,16 +848,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <f t="shared" si="1"/>
-        <v>-2.3099929779210275</v>
+        <f t="shared" si="2"/>
+        <v>-3.539997804416307</v>
       </c>
       <c r="C25">
-        <f t="shared" si="2"/>
-        <v>-2.3099948799574004</v>
+        <f t="shared" si="0"/>
+        <v>-3.5399984778760767</v>
       </c>
       <c r="D25">
         <f t="shared" si="3"/>
-        <v>1.9020363728472489E-6</v>
+        <v>6.7345976972887911E-7</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -846,16 +865,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <f t="shared" si="1"/>
-        <v>-2.3099948799574004</v>
+        <f t="shared" si="2"/>
+        <v>-3.5399984778760767</v>
       </c>
       <c r="C26">
-        <f t="shared" si="2"/>
-        <v>-2.3099962667992693</v>
+        <f t="shared" si="0"/>
+        <v>-3.5399989447630027</v>
       </c>
       <c r="D26">
         <f t="shared" si="3"/>
-        <v>1.386841868900035E-6</v>
+        <v>4.6688692600937998E-7</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -863,16 +882,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <f t="shared" si="1"/>
-        <v>-2.3099962667992693</v>
+        <f t="shared" si="2"/>
+        <v>-3.5399989447630027</v>
       </c>
       <c r="C27">
-        <f t="shared" si="2"/>
-        <v>-2.3099972779942455</v>
+        <f t="shared" si="0"/>
+        <v>-3.5399992684399262</v>
       </c>
       <c r="D27">
         <f t="shared" si="3"/>
-        <v>1.0111949761970607E-6</v>
+        <v>3.2367692348600485E-7</v>
       </c>
     </row>
   </sheetData>
